--- a/players_stats/Kemba Walker.xlsx
+++ b/players_stats/Kemba Walker.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ9"/>
+  <dimension ref="A1:AJ11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,15 +552,15 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1986-87</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -570,92 +570,92 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I2" t="n">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="J2" t="n">
-        <v>1719</v>
+        <v>1792</v>
       </c>
       <c r="K2" t="n">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="L2" t="n">
-        <v>581</v>
+        <v>767</v>
       </c>
       <c r="M2" t="n">
-        <v>0.491</v>
+        <v>0.366</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="O2" t="n">
-        <v>4</v>
+        <v>226</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>0.305</v>
       </c>
       <c r="Q2" t="n">
-        <v>285</v>
+        <v>212</v>
       </c>
       <c r="R2" t="n">
-        <v>577</v>
+        <v>541</v>
       </c>
       <c r="S2" t="n">
-        <v>0.494</v>
+        <v>0.392</v>
       </c>
       <c r="T2" t="n">
-        <v>0.491</v>
+        <v>0.411</v>
       </c>
       <c r="U2" t="n">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="V2" t="n">
-        <v>185</v>
+        <v>213</v>
       </c>
       <c r="W2" t="n">
-        <v>0.757</v>
+        <v>0.789</v>
       </c>
       <c r="X2" t="n">
-        <v>118</v>
+        <v>30</v>
       </c>
       <c r="Y2" t="n">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="Z2" t="n">
-        <v>338</v>
+        <v>234</v>
       </c>
       <c r="AA2" t="n">
-        <v>75</v>
+        <v>289</v>
       </c>
       <c r="AB2" t="n">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="AC2" t="n">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="AD2" t="n">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="AE2" t="n">
-        <v>236</v>
+        <v>79</v>
       </c>
       <c r="AF2" t="n">
-        <v>710</v>
+        <v>799</v>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 203</t>
+          <t xml:space="preserve"> 183</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 95 </t>
+          <t xml:space="preserve"> 78 </t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="AJ2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -676,15 +676,15 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1987-88</t>
+          <t>2012-13</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -694,92 +694,92 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>82</v>
       </c>
       <c r="I3" t="n">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="J3" t="n">
-        <v>2139</v>
+        <v>2859</v>
       </c>
       <c r="K3" t="n">
-        <v>344</v>
+        <v>526</v>
       </c>
       <c r="L3" t="n">
-        <v>728</v>
+        <v>1244</v>
       </c>
       <c r="M3" t="n">
-        <v>0.473</v>
+        <v>0.423</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>332</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>0.322</v>
       </c>
       <c r="Q3" t="n">
-        <v>344</v>
+        <v>419</v>
       </c>
       <c r="R3" t="n">
-        <v>727</v>
+        <v>912</v>
       </c>
       <c r="S3" t="n">
-        <v>0.473</v>
+        <v>0.459</v>
       </c>
       <c r="T3" t="n">
-        <v>0.473</v>
+        <v>0.466</v>
       </c>
       <c r="U3" t="n">
-        <v>138</v>
+        <v>296</v>
       </c>
       <c r="V3" t="n">
-        <v>178</v>
+        <v>371</v>
       </c>
       <c r="W3" t="n">
-        <v>0.775</v>
+        <v>0.7979999999999999</v>
       </c>
       <c r="X3" t="n">
-        <v>192</v>
+        <v>60</v>
       </c>
       <c r="Y3" t="n">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="Z3" t="n">
-        <v>389</v>
+        <v>283</v>
       </c>
       <c r="AA3" t="n">
-        <v>86</v>
+        <v>471</v>
       </c>
       <c r="AB3" t="n">
-        <v>63</v>
+        <v>160</v>
       </c>
       <c r="AC3" t="n">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="AD3" t="n">
-        <v>83</v>
+        <v>200</v>
       </c>
       <c r="AE3" t="n">
-        <v>290</v>
+        <v>153</v>
       </c>
       <c r="AF3" t="n">
-        <v>826</v>
+        <v>1455</v>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 203</t>
+          <t xml:space="preserve"> 183</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 95 </t>
+          <t xml:space="preserve"> 78 </t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
@@ -788,7 +788,7 @@
         </is>
       </c>
       <c r="AJ3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -800,15 +800,15 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1988-89</t>
+          <t>2013-14</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -818,92 +818,92 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="J4" t="n">
-        <v>1163</v>
+        <v>2614</v>
       </c>
       <c r="K4" t="n">
-        <v>174</v>
+        <v>449</v>
       </c>
       <c r="L4" t="n">
-        <v>356</v>
+        <v>1143</v>
       </c>
       <c r="M4" t="n">
-        <v>0.489</v>
+        <v>0.393</v>
       </c>
       <c r="N4" t="n">
-        <v>5</v>
+        <v>109</v>
       </c>
       <c r="O4" t="n">
-        <v>20</v>
+        <v>327</v>
       </c>
       <c r="P4" t="n">
-        <v>0.25</v>
+        <v>0.333</v>
       </c>
       <c r="Q4" t="n">
+        <v>340</v>
+      </c>
+      <c r="R4" t="n">
+        <v>816</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.441</v>
+      </c>
+      <c r="U4" t="n">
+        <v>282</v>
+      </c>
+      <c r="V4" t="n">
+        <v>337</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.8370000000000001</v>
+      </c>
+      <c r="X4" t="n">
+        <v>39</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>267</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>306</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>447</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>86</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>32</v>
+      </c>
+      <c r="AD4" t="n">
         <v>169</v>
       </c>
-      <c r="R4" t="n">
-        <v>336</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.503</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.496</v>
-      </c>
-      <c r="U4" t="n">
-        <v>66</v>
-      </c>
-      <c r="V4" t="n">
-        <v>85</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0.7759999999999999</v>
-      </c>
-      <c r="X4" t="n">
-        <v>101</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>129</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>230</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>36</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>45</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>44</v>
-      </c>
       <c r="AE4" t="n">
-        <v>190</v>
+        <v>128</v>
       </c>
       <c r="AF4" t="n">
-        <v>419</v>
+        <v>1289</v>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 203</t>
+          <t xml:space="preserve"> 183</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 95 </t>
+          <t xml:space="preserve"> 78 </t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="AJ4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -924,15 +924,15 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1989-90</t>
+          <t>2014-15</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -942,92 +942,92 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I5" t="n">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="J5" t="n">
-        <v>1595</v>
+        <v>2119</v>
       </c>
       <c r="K5" t="n">
-        <v>204</v>
+        <v>378</v>
       </c>
       <c r="L5" t="n">
-        <v>384</v>
+        <v>981</v>
       </c>
       <c r="M5" t="n">
-        <v>0.531</v>
+        <v>0.385</v>
       </c>
       <c r="N5" t="n">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="O5" t="n">
-        <v>5</v>
+        <v>280</v>
       </c>
       <c r="P5" t="n">
-        <v>0.4</v>
+        <v>0.304</v>
       </c>
       <c r="Q5" t="n">
-        <v>202</v>
+        <v>293</v>
       </c>
       <c r="R5" t="n">
-        <v>379</v>
+        <v>701</v>
       </c>
       <c r="S5" t="n">
-        <v>0.5329999999999999</v>
+        <v>0.418</v>
       </c>
       <c r="T5" t="n">
-        <v>0.534</v>
+        <v>0.429</v>
       </c>
       <c r="U5" t="n">
-        <v>125</v>
+        <v>234</v>
       </c>
       <c r="V5" t="n">
-        <v>173</v>
+        <v>283</v>
       </c>
       <c r="W5" t="n">
-        <v>0.723</v>
+        <v>0.8270000000000001</v>
       </c>
       <c r="X5" t="n">
-        <v>131</v>
+        <v>35</v>
       </c>
       <c r="Y5" t="n">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="Z5" t="n">
-        <v>343</v>
+        <v>220</v>
       </c>
       <c r="AA5" t="n">
-        <v>49</v>
+        <v>318</v>
       </c>
       <c r="AB5" t="n">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="AC5" t="n">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="AD5" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AE5" t="n">
-        <v>178</v>
+        <v>92</v>
       </c>
       <c r="AF5" t="n">
-        <v>535</v>
+        <v>1075</v>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 203</t>
+          <t xml:space="preserve"> 183</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 95 </t>
+          <t xml:space="preserve"> 78 </t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
@@ -1036,7 +1036,7 @@
         </is>
       </c>
       <c r="AJ5" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1048,15 +1048,15 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1990-91</t>
+          <t>2015-16</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1066,92 +1066,92 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="I6" t="n">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="J6" t="n">
-        <v>771</v>
+        <v>2885</v>
       </c>
       <c r="K6" t="n">
-        <v>83</v>
+        <v>568</v>
       </c>
       <c r="L6" t="n">
-        <v>191</v>
+        <v>1331</v>
       </c>
       <c r="M6" t="n">
-        <v>0.435</v>
+        <v>0.427</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>490</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>0.371</v>
       </c>
       <c r="Q6" t="n">
-        <v>83</v>
+        <v>386</v>
       </c>
       <c r="R6" t="n">
-        <v>190</v>
+        <v>841</v>
       </c>
       <c r="S6" t="n">
-        <v>0.4370000000000001</v>
+        <v>0.459</v>
       </c>
       <c r="T6" t="n">
-        <v>0.435</v>
+        <v>0.495</v>
       </c>
       <c r="U6" t="n">
-        <v>64</v>
+        <v>371</v>
       </c>
       <c r="V6" t="n">
-        <v>82</v>
+        <v>438</v>
       </c>
       <c r="W6" t="n">
-        <v>0.78</v>
+        <v>0.847</v>
       </c>
       <c r="X6" t="n">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="Y6" t="n">
-        <v>94</v>
+        <v>301</v>
       </c>
       <c r="Z6" t="n">
-        <v>157</v>
+        <v>357</v>
       </c>
       <c r="AA6" t="n">
-        <v>13</v>
+        <v>421</v>
       </c>
       <c r="AB6" t="n">
-        <v>18</v>
+        <v>126</v>
       </c>
       <c r="AC6" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="AD6" t="n">
-        <v>30</v>
+        <v>171</v>
       </c>
       <c r="AE6" t="n">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="AF6" t="n">
-        <v>230</v>
+        <v>1689</v>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 203</t>
+          <t xml:space="preserve"> 183</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 95 </t>
+          <t xml:space="preserve"> 78 </t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
@@ -1160,7 +1160,7 @@
         </is>
       </c>
       <c r="AJ6" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1172,15 +1172,15 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1993-94</t>
+          <t>2016-17</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>WSB</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1190,92 +1190,92 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I7" t="n">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="J7" t="n">
-        <v>1397</v>
+        <v>2739</v>
       </c>
       <c r="K7" t="n">
-        <v>132</v>
+        <v>643</v>
       </c>
       <c r="L7" t="n">
-        <v>274</v>
+        <v>1449</v>
       </c>
       <c r="M7" t="n">
-        <v>0.482</v>
+        <v>0.444</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="O7" t="n">
-        <v>3</v>
+        <v>602</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>0.399</v>
       </c>
       <c r="Q7" t="n">
-        <v>132</v>
+        <v>403</v>
       </c>
       <c r="R7" t="n">
-        <v>271</v>
+        <v>847</v>
       </c>
       <c r="S7" t="n">
-        <v>0.487</v>
+        <v>0.476</v>
       </c>
       <c r="T7" t="n">
-        <v>0.482</v>
+        <v>0.527</v>
       </c>
       <c r="U7" t="n">
-        <v>87</v>
+        <v>304</v>
       </c>
       <c r="V7" t="n">
-        <v>125</v>
+        <v>359</v>
       </c>
       <c r="W7" t="n">
-        <v>0.696</v>
+        <v>0.847</v>
       </c>
       <c r="X7" t="n">
-        <v>118</v>
+        <v>45</v>
       </c>
       <c r="Y7" t="n">
-        <v>171</v>
+        <v>263</v>
       </c>
       <c r="Z7" t="n">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="AA7" t="n">
-        <v>33</v>
+        <v>434</v>
       </c>
       <c r="AB7" t="n">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="AC7" t="n">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="AD7" t="n">
-        <v>44</v>
+        <v>168</v>
       </c>
       <c r="AE7" t="n">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="AF7" t="n">
-        <v>351</v>
+        <v>1830</v>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 203</t>
+          <t xml:space="preserve"> 183</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 95 </t>
+          <t xml:space="preserve"> 78 </t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
@@ -1284,7 +1284,7 @@
         </is>
       </c>
       <c r="AJ7" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -1296,15 +1296,15 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1994-95</t>
+          <t>2017-18</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>WSB</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1314,90 +1314,92 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="H8" t="n">
+        <v>80</v>
+      </c>
+      <c r="I8" t="n">
+        <v>80</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2736</v>
+      </c>
+      <c r="K8" t="n">
+        <v>588</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1363</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.431</v>
+      </c>
+      <c r="N8" t="n">
+        <v>231</v>
+      </c>
+      <c r="O8" t="n">
+        <v>601</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.384</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>357</v>
+      </c>
+      <c r="R8" t="n">
+        <v>762</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.469</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.516</v>
+      </c>
+      <c r="U8" t="n">
+        <v>363</v>
+      </c>
+      <c r="V8" t="n">
+        <v>420</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.8640000000000001</v>
+      </c>
+      <c r="X8" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>216</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>248</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>444</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>91</v>
+      </c>
+      <c r="AC8" t="n">
         <v>24</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>266</v>
-      </c>
-      <c r="K8" t="n">
-        <v>18</v>
-      </c>
-      <c r="L8" t="n">
-        <v>42</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.429</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="n">
-        <v>18</v>
-      </c>
-      <c r="R8" t="n">
-        <v>42</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0.429</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0.429</v>
-      </c>
-      <c r="U8" t="n">
-        <v>21</v>
-      </c>
-      <c r="V8" t="n">
-        <v>28</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="X8" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>47</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>5</v>
-      </c>
       <c r="AD8" t="n">
-        <v>15</v>
+        <v>179</v>
       </c>
       <c r="AE8" t="n">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="AF8" t="n">
-        <v>57</v>
+        <v>1770</v>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 203</t>
+          <t xml:space="preserve"> 183</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 95 </t>
+          <t xml:space="preserve"> 78 </t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
@@ -1406,7 +1408,7 @@
         </is>
       </c>
       <c r="AJ8" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1418,113 +1420,361 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>2018-19</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>28</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>CHO</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>82</v>
+      </c>
+      <c r="I9" t="n">
+        <v>82</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2863</v>
+      </c>
+      <c r="K9" t="n">
+        <v>731</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1684</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.434</v>
+      </c>
+      <c r="N9" t="n">
+        <v>260</v>
+      </c>
+      <c r="O9" t="n">
+        <v>731</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.356</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>471</v>
+      </c>
+      <c r="R9" t="n">
+        <v>953</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.494</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.511</v>
+      </c>
+      <c r="U9" t="n">
+        <v>380</v>
+      </c>
+      <c r="V9" t="n">
+        <v>450</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.8440000000000001</v>
+      </c>
+      <c r="X9" t="n">
+        <v>52</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>309</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>361</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>484</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>102</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>211</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>131</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>2102</v>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 183</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 78 </t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2019-20</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>29</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>14</v>
+      </c>
+      <c r="I10" t="n">
+        <v>14</v>
+      </c>
+      <c r="J10" t="n">
+        <v>473</v>
+      </c>
+      <c r="K10" t="n">
+        <v>100</v>
+      </c>
+      <c r="L10" t="n">
+        <v>247</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="N10" t="n">
+        <v>51</v>
+      </c>
+      <c r="O10" t="n">
+        <v>130</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.392</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>49</v>
+      </c>
+      <c r="R10" t="n">
+        <v>117</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.419</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.508</v>
+      </c>
+      <c r="U10" t="n">
+        <v>66</v>
+      </c>
+      <c r="V10" t="n">
+        <v>72</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.917</v>
+      </c>
+      <c r="X10" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>53</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>68</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>317</v>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 183</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 78 </t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>Career</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
         <is>
           <t>NBA</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>448</v>
-      </c>
-      <c r="I9" t="n">
-        <v>160</v>
-      </c>
-      <c r="J9" t="n">
-        <v>9050</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1240</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2556</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.485</v>
-      </c>
-      <c r="N9" t="n">
-        <v>7</v>
-      </c>
-      <c r="O9" t="n">
-        <v>34</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0.206</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1233</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2522</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0.489</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0.487</v>
-      </c>
-      <c r="U9" t="n">
-        <v>641</v>
-      </c>
-      <c r="V9" t="n">
-        <v>856</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0.7490000000000001</v>
-      </c>
-      <c r="X9" t="n">
-        <v>742</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>1051</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>1793</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>299</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>235</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>299</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>351</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>1184</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>3128</v>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 203</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 95 </t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>619</v>
+      </c>
+      <c r="I11" t="n">
+        <v>574</v>
+      </c>
+      <c r="J11" t="n">
+        <v>21080</v>
+      </c>
+      <c r="K11" t="n">
+        <v>4264</v>
+      </c>
+      <c r="L11" t="n">
+        <v>10209</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.418</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1334</v>
+      </c>
+      <c r="O11" t="n">
+        <v>3719</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.359</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2930</v>
+      </c>
+      <c r="R11" t="n">
+        <v>6490</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.451</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.483</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2464</v>
+      </c>
+      <c r="V11" t="n">
+        <v>2943</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.8370000000000001</v>
+      </c>
+      <c r="X11" t="n">
+        <v>364</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>2021</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>2385</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>3375</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>811</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>241</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>1349</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>939</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>12326</v>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 183</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 78 </t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
         <is>
           <t>Right</t>
         </is>
       </c>
-      <c r="AJ9" t="n">
-        <v>5</v>
+      <c r="AJ11" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
